--- a/assignment_3/Book.xlsx
+++ b/assignment_3/Book.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Parallel-and-Distributed-Computing\assignment_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C476618-8556-40BA-B38B-0FD73A291A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E7C5EB-253F-4997-BB59-7DFFF43EF556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="-60" windowWidth="10470" windowHeight="15480" xr2:uid="{CD1F1AEC-81D9-4745-B0F5-246389CC6D0B}"/>
+    <workbookView xWindow="14295" yWindow="7740" windowWidth="14610" windowHeight="7845" xr2:uid="{CD1F1AEC-81D9-4745-B0F5-246389CC6D0B}"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="4" r:id="rId1"/>
-    <sheet name="output" sheetId="3" r:id="rId2"/>
+    <sheet name="output 4" sheetId="4" r:id="rId1"/>
+    <sheet name="output 2 &amp; 3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">output!$B$1:$B$132</definedName>
-    <definedName name="ExternalData_2" localSheetId="0" hidden="1">test!$A$1:$A$19</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">'output 2 &amp; 3'!$B$1:$B$132</definedName>
+    <definedName name="ExternalData_2" localSheetId="0" hidden="1">'output 4'!$A$1:$A$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -203,7 +203,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -281,7 +281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -292,13 +292,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -459,7 +457,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>test!$J$3:$J$9</c:f>
+              <c:f>'output 4'!$J$3:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -489,7 +487,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>test!$K$3:$K$9</c:f>
+              <c:f>'output 4'!$K$3:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -543,6 +541,68 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>OMP_NUM_THREADS</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -608,6 +668,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TIME</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -767,7 +882,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>test!$J$3:$J$9</c:f>
+              <c:f>'output 4'!$J$3:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -797,7 +912,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>test!$K$3:$K$9</c:f>
+              <c:f>'output 4'!$K$3:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -864,6 +979,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>OMP_NUM_THREADS</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -926,6 +1103,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TIME</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1067,7 +1299,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>output!$T$3</c:f>
+              <c:f>'output 2 &amp; 3'!$T$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1090,7 +1322,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>output!$U$2:$AE$2</c:f>
+              <c:f>'output 2 &amp; 3'!$U$2:$AE$2</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -1131,7 +1363,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$U$3:$AE$3</c:f>
+              <c:f>'output 2 &amp; 3'!$U$3:$AE$3</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1183,7 +1415,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>output!$T$4</c:f>
+              <c:f>'output 2 &amp; 3'!$T$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1206,7 +1438,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>output!$U$2:$AE$2</c:f>
+              <c:f>'output 2 &amp; 3'!$U$2:$AE$2</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -1247,7 +1479,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$U$4:$AE$4</c:f>
+              <c:f>'output 2 &amp; 3'!$U$4:$AE$4</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1299,7 +1531,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>output!$T$5</c:f>
+              <c:f>'output 2 &amp; 3'!$T$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1322,7 +1554,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>output!$U$2:$AE$2</c:f>
+              <c:f>'output 2 &amp; 3'!$U$2:$AE$2</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -1363,7 +1595,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$U$5:$AE$5</c:f>
+              <c:f>'output 2 &amp; 3'!$U$5:$AE$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1415,7 +1647,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>output!$T$6</c:f>
+              <c:f>'output 2 &amp; 3'!$T$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1438,7 +1670,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>output!$U$2:$AE$2</c:f>
+              <c:f>'output 2 &amp; 3'!$U$2:$AE$2</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -1479,7 +1711,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$U$6:$AE$6</c:f>
+              <c:f>'output 2 &amp; 3'!$U$6:$AE$6</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1531,7 +1763,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>output!$T$7</c:f>
+              <c:f>'output 2 &amp; 3'!$T$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1554,7 +1786,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>output!$U$2:$AE$2</c:f>
+              <c:f>'output 2 &amp; 3'!$U$2:$AE$2</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -1595,7 +1827,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$U$7:$AE$7</c:f>
+              <c:f>'output 2 &amp; 3'!$U$7:$AE$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1647,7 +1879,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>output!$T$8</c:f>
+              <c:f>'output 2 &amp; 3'!$T$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1670,7 +1902,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>output!$U$2:$AE$2</c:f>
+              <c:f>'output 2 &amp; 3'!$U$2:$AE$2</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -1711,7 +1943,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$U$8:$AE$8</c:f>
+              <c:f>'output 2 &amp; 3'!$U$8:$AE$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1763,7 +1995,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>output!$T$9</c:f>
+              <c:f>'output 2 &amp; 3'!$T$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1788,7 +2020,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>output!$U$2:$AE$2</c:f>
+              <c:f>'output 2 &amp; 3'!$U$2:$AE$2</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -1829,7 +2061,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$U$9:$AE$9</c:f>
+              <c:f>'output 2 &amp; 3'!$U$9:$AE$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1881,7 +2113,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>output!$T$10</c:f>
+              <c:f>'output 2 &amp; 3'!$T$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1906,7 +2138,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>output!$U$2:$AE$2</c:f>
+              <c:f>'output 2 &amp; 3'!$U$2:$AE$2</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -1947,7 +2179,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$U$10:$AE$10</c:f>
+              <c:f>'output 2 &amp; 3'!$U$10:$AE$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1999,7 +2231,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>output!$T$11</c:f>
+              <c:f>'output 2 &amp; 3'!$T$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2024,7 +2256,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>output!$U$2:$AE$2</c:f>
+              <c:f>'output 2 &amp; 3'!$U$2:$AE$2</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -2065,7 +2297,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$U$11:$AE$11</c:f>
+              <c:f>'output 2 &amp; 3'!$U$11:$AE$11</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2117,7 +2349,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>output!$T$12</c:f>
+              <c:f>'output 2 &amp; 3'!$T$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2142,7 +2374,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>output!$U$2:$AE$2</c:f>
+              <c:f>'output 2 &amp; 3'!$U$2:$AE$2</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -2183,7 +2415,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$U$12:$AE$12</c:f>
+              <c:f>'output 2 &amp; 3'!$U$12:$AE$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2487,7 +2719,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>output!$U$2</c:f>
+              <c:f>'output 2 &amp; 3'!$U$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2510,7 +2742,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>output!$T$3:$T$12</c:f>
+              <c:f>'output 2 &amp; 3'!$T$3:$T$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2549,7 +2781,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$U$3:$U$12</c:f>
+              <c:f>'output 2 &amp; 3'!$U$3:$U$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2598,7 +2830,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>output!$V$2</c:f>
+              <c:f>'output 2 &amp; 3'!$V$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2621,7 +2853,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>output!$T$3:$T$12</c:f>
+              <c:f>'output 2 &amp; 3'!$T$3:$T$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2660,7 +2892,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$V$3:$V$12</c:f>
+              <c:f>'output 2 &amp; 3'!$V$3:$V$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2709,7 +2941,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>output!$W$2</c:f>
+              <c:f>'output 2 &amp; 3'!$W$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2732,7 +2964,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>output!$T$3:$T$12</c:f>
+              <c:f>'output 2 &amp; 3'!$T$3:$T$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2771,7 +3003,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$W$3:$W$12</c:f>
+              <c:f>'output 2 &amp; 3'!$W$3:$W$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2820,7 +3052,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>output!$X$2</c:f>
+              <c:f>'output 2 &amp; 3'!$X$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2843,7 +3075,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>output!$T$3:$T$12</c:f>
+              <c:f>'output 2 &amp; 3'!$T$3:$T$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2882,7 +3114,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$X$3:$X$12</c:f>
+              <c:f>'output 2 &amp; 3'!$X$3:$X$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2931,7 +3163,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>output!$Y$2</c:f>
+              <c:f>'output 2 &amp; 3'!$Y$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2954,7 +3186,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>output!$T$3:$T$12</c:f>
+              <c:f>'output 2 &amp; 3'!$T$3:$T$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2993,7 +3225,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$Y$3:$Y$12</c:f>
+              <c:f>'output 2 &amp; 3'!$Y$3:$Y$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3042,7 +3274,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>output!$Z$2</c:f>
+              <c:f>'output 2 &amp; 3'!$Z$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3065,7 +3297,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>output!$T$3:$T$12</c:f>
+              <c:f>'output 2 &amp; 3'!$T$3:$T$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3104,7 +3336,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$Z$3:$Z$12</c:f>
+              <c:f>'output 2 &amp; 3'!$Z$3:$Z$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3153,7 +3385,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>output!$AA$2</c:f>
+              <c:f>'output 2 &amp; 3'!$AA$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3178,7 +3410,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>output!$T$3:$T$12</c:f>
+              <c:f>'output 2 &amp; 3'!$T$3:$T$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3217,7 +3449,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$AA$3:$AA$12</c:f>
+              <c:f>'output 2 &amp; 3'!$AA$3:$AA$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3266,7 +3498,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>output!$AB$2</c:f>
+              <c:f>'output 2 &amp; 3'!$AB$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3291,7 +3523,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>output!$T$3:$T$12</c:f>
+              <c:f>'output 2 &amp; 3'!$T$3:$T$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3330,7 +3562,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$AB$3:$AB$12</c:f>
+              <c:f>'output 2 &amp; 3'!$AB$3:$AB$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3379,7 +3611,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>output!$AC$2</c:f>
+              <c:f>'output 2 &amp; 3'!$AC$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3404,7 +3636,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>output!$T$3:$T$12</c:f>
+              <c:f>'output 2 &amp; 3'!$T$3:$T$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3443,7 +3675,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$AC$3:$AC$12</c:f>
+              <c:f>'output 2 &amp; 3'!$AC$3:$AC$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3492,7 +3724,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>output!$AD$2</c:f>
+              <c:f>'output 2 &amp; 3'!$AD$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3517,7 +3749,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>output!$T$3:$T$12</c:f>
+              <c:f>'output 2 &amp; 3'!$T$3:$T$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3556,7 +3788,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$AD$3:$AD$12</c:f>
+              <c:f>'output 2 &amp; 3'!$AD$3:$AD$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3605,7 +3837,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>output!$AE$2</c:f>
+              <c:f>'output 2 &amp; 3'!$AE$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3630,7 +3862,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>output!$T$3:$T$12</c:f>
+              <c:f>'output 2 &amp; 3'!$T$3:$T$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3669,7 +3901,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output!$AE$3:$AE$12</c:f>
+              <c:f>'output 2 &amp; 3'!$AE$3:$AE$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6319,39 +6551,39 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6BAAD677-C5A4-4B28-82B7-E4CD4066B02B}" name="test" displayName="test" ref="A1:H19" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:H19" xr:uid="{6BAAD677-C5A4-4B28-82B7-E4CD4066B02B}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{717529BF-B3D9-48EB-9605-2C0949FD1687}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{8140467B-E232-473D-AD9D-F40778DD2ED3}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{1F6E189D-C4E2-4AA8-8F43-77A298111B20}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{EAEC98F7-6036-4893-8194-3405DC0C47C5}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{112D442E-64DB-47DA-B3D9-FD968D198021}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{69CC2B34-7A35-4B7B-9ACC-3C6786E5709D}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{1AFA2884-EB13-4E94-9A00-9A0A1A43F3A3}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{4FD36DE2-A0D6-44CC-B9CC-D3A6AEE07D16}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{717529BF-B3D9-48EB-9605-2C0949FD1687}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{8140467B-E232-473D-AD9D-F40778DD2ED3}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{1F6E189D-C4E2-4AA8-8F43-77A298111B20}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{EAEC98F7-6036-4893-8194-3405DC0C47C5}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{112D442E-64DB-47DA-B3D9-FD968D198021}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{69CC2B34-7A35-4B7B-9ACC-3C6786E5709D}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{1AFA2884-EB13-4E94-9A00-9A0A1A43F3A3}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{4FD36DE2-A0D6-44CC-B9CC-D3A6AEE07D16}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0654643E-2B70-498D-A1A2-F71CC884FDBF}" name="output" displayName="output" ref="B1:Q132" tableType="queryTable" totalsRowShown="0" headerRowDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0654643E-2B70-498D-A1A2-F71CC884FDBF}" name="output" displayName="output" ref="B1:Q132" tableType="queryTable" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="B1:Q132" xr:uid="{0654643E-2B70-498D-A1A2-F71CC884FDBF}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{78B39DD4-5839-43B4-9B4E-0E1546BCFD97}" uniqueName="1" name="Iteration 1" queryTableFieldId="1" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{A49B4398-3846-45AF-8847-4520FA03CD17}" uniqueName="2" name="Iteration 2" queryTableFieldId="2" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{4E5FBF1E-394E-4854-9147-37F7821460BA}" uniqueName="3" name="Iteration 3" queryTableFieldId="3" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{1EBC6A64-6CDE-418B-9FD6-2A203FC1FE91}" uniqueName="4" name="Iteration 4" queryTableFieldId="4" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{16952177-EEB5-4D08-A450-BB1EE15795C3}" uniqueName="5" name="Iteration 5" queryTableFieldId="5" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{F7F20685-54E2-40BF-A946-C639AE327A99}" uniqueName="6" name="Iteration 6" queryTableFieldId="6" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{5785C2CE-168E-4A67-8E61-31E8815CD7A1}" uniqueName="7" name="Iteration 7" queryTableFieldId="7" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{9C6BA758-8312-4A26-ABB1-AE0B51CBD9CD}" uniqueName="8" name="Iteration 8" queryTableFieldId="8" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{D48A89A5-8A7B-4468-A411-DE92232CDB58}" uniqueName="9" name="Iteration 9" queryTableFieldId="9" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{2D2626F0-B8BA-4241-B131-2304FBA98CE4}" uniqueName="10" name="Iteration 10" queryTableFieldId="10" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{0203590C-FC2F-4BF8-81E7-8E5AE00EB10A}" uniqueName="11" name="Iteration 11" queryTableFieldId="11" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{0766A542-E893-4D1E-8ECA-51DE990FF9DD}" uniqueName="12" name="Iteration 12" queryTableFieldId="12" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{B68DF876-9E15-4B4C-A5D6-06725F80BC96}" uniqueName="13" name="Iteration 13" queryTableFieldId="13" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{D8B5898B-63DA-4F34-972C-70696FF464A5}" uniqueName="14" name="Iteration 14" queryTableFieldId="14" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{2AB65BEC-4C88-44CC-A83C-CE7CF0E8F4D4}" uniqueName="15" name="Iteration 15" queryTableFieldId="15" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{06FAC213-1C09-446F-B5BA-0AA06EA788B8}" uniqueName="16" name="Mean" queryTableFieldId="16" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{78B39DD4-5839-43B4-9B4E-0E1546BCFD97}" uniqueName="1" name="Iteration 1" queryTableFieldId="1" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{A49B4398-3846-45AF-8847-4520FA03CD17}" uniqueName="2" name="Iteration 2" queryTableFieldId="2" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{4E5FBF1E-394E-4854-9147-37F7821460BA}" uniqueName="3" name="Iteration 3" queryTableFieldId="3" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{1EBC6A64-6CDE-418B-9FD6-2A203FC1FE91}" uniqueName="4" name="Iteration 4" queryTableFieldId="4" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{16952177-EEB5-4D08-A450-BB1EE15795C3}" uniqueName="5" name="Iteration 5" queryTableFieldId="5" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{F7F20685-54E2-40BF-A946-C639AE327A99}" uniqueName="6" name="Iteration 6" queryTableFieldId="6" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{5785C2CE-168E-4A67-8E61-31E8815CD7A1}" uniqueName="7" name="Iteration 7" queryTableFieldId="7" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{9C6BA758-8312-4A26-ABB1-AE0B51CBD9CD}" uniqueName="8" name="Iteration 8" queryTableFieldId="8" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{D48A89A5-8A7B-4468-A411-DE92232CDB58}" uniqueName="9" name="Iteration 9" queryTableFieldId="9" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{2D2626F0-B8BA-4241-B131-2304FBA98CE4}" uniqueName="10" name="Iteration 10" queryTableFieldId="10" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{0203590C-FC2F-4BF8-81E7-8E5AE00EB10A}" uniqueName="11" name="Iteration 11" queryTableFieldId="11" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{0766A542-E893-4D1E-8ECA-51DE990FF9DD}" uniqueName="12" name="Iteration 12" queryTableFieldId="12" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{B68DF876-9E15-4B4C-A5D6-06725F80BC96}" uniqueName="13" name="Iteration 13" queryTableFieldId="13" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{D8B5898B-63DA-4F34-972C-70696FF464A5}" uniqueName="14" name="Iteration 14" queryTableFieldId="14" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{2AB65BEC-4C88-44CC-A83C-CE7CF0E8F4D4}" uniqueName="15" name="Iteration 15" queryTableFieldId="15" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{06FAC213-1C09-446F-B5BA-0AA06EA788B8}" uniqueName="16" name="Mean" queryTableFieldId="16" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6646,7 +6878,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6654,10 +6886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C8D0A6-CBC7-406A-A771-E632902CB82E}">
-  <dimension ref="A1:K116"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6697,54 +6929,54 @@
       <c r="A2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2">
         <v>4</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2">
         <v>8</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="6">
         <v>16</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="6">
         <v>32</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="7">
         <v>64</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>6.7834000000000005E-2</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <v>4.3219E-2</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <v>3.5145000000000003E-2</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="8">
         <v>2.2099000000000001E-2</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="9">
         <v>5.5669999999999997E-2</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="9">
         <v>8.6122000000000004E-2</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="10">
         <v>0.159522</v>
       </c>
       <c r="J3">
@@ -6756,25 +6988,25 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>7.4312000000000003E-2</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>4.5357000000000001E-2</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>3.0030999999999999E-2</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="8">
         <v>1.8364999999999999E-2</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="10">
         <v>5.0715999999999997E-2</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="10">
         <v>8.5033999999999998E-2</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="9">
         <v>0.158966</v>
       </c>
       <c r="J4">
@@ -6786,25 +7018,25 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>6.9379999999999997E-2</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>4.0688000000000002E-2</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>2.7775999999999999E-2</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <v>2.4086E-2</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>5.0025E-2</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="9">
         <v>8.8154999999999997E-2</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="10">
         <v>0.16058</v>
       </c>
       <c r="J5">
@@ -6816,25 +7048,25 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>6.7641000000000007E-2</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>4.4044E-2</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>3.0179000000000001E-2</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <v>2.1808000000000001E-2</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="10">
         <v>5.0865E-2</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="10">
         <v>9.9856E-2</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="9">
         <v>0.15950600000000001</v>
       </c>
       <c r="J6">
@@ -6846,25 +7078,25 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>6.9089999999999999E-2</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>3.9556000000000001E-2</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>3.5457000000000002E-2</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <v>2.4521000000000001E-2</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <v>5.6203000000000003E-2</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="9">
         <v>8.3099999999999993E-2</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="10">
         <v>0.166017</v>
       </c>
       <c r="J7">
@@ -6876,25 +7108,25 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <v>6.7244999999999999E-2</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <v>3.9550000000000002E-2</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <v>2.5097999999999999E-2</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <v>2.2082000000000001E-2</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="10">
         <v>5.0214000000000002E-2</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="10">
         <v>8.6100999999999997E-2</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="9">
         <v>0.15717800000000001</v>
       </c>
       <c r="J8">
@@ -6906,25 +7138,25 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>6.7531999999999995E-2</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>4.2612999999999998E-2</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="8">
         <v>3.5847999999999998E-2</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="8">
         <v>2.0466000000000002E-2</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="9">
         <v>5.1756999999999997E-2</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="9">
         <v>8.4352999999999997E-2</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="10">
         <v>0.15870400000000001</v>
       </c>
       <c r="J9">
@@ -6936,817 +7168,249 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <v>6.8198999999999996E-2</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8">
         <v>3.9558999999999997E-2</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <v>2.7251000000000001E-2</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="8">
         <v>1.9179999999999999E-2</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="10">
         <v>4.9799000000000003E-2</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="10">
         <v>8.5426000000000002E-2</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="9">
         <v>0.15732699999999999</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>6.8365999999999996E-2</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <v>4.9070000000000003E-2</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="8">
         <v>2.7642E-2</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="8">
         <v>1.8761E-2</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="9">
         <v>5.2988E-2</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="9">
         <v>8.4948999999999997E-2</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="10">
         <v>0.16029399999999999</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <v>6.9372000000000003E-2</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="8">
         <v>4.4315E-2</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="8">
         <v>2.8250000000000001E-2</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="8">
         <v>1.8336999999999999E-2</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="10">
         <v>5.5407999999999999E-2</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="10">
         <v>0.10205</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="9">
         <v>0.15986800000000001</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="10">
+      <c r="B13" s="8">
         <v>7.4181999999999998E-2</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="8">
         <v>4.4262000000000003E-2</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="8">
         <v>3.2619000000000002E-2</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="8">
         <v>2.2408000000000001E-2</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="9">
         <v>5.5556000000000001E-2</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="9">
         <v>8.6660000000000001E-2</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="10">
         <v>0.15759699999999999</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="10">
+      <c r="B14" s="8">
         <v>6.7652000000000004E-2</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="8">
         <v>3.7638999999999999E-2</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="8">
         <v>2.5894E-2</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="8">
         <v>1.9474000000000002E-2</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="10">
         <v>5.5329999999999997E-2</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="10">
         <v>8.4901000000000004E-2</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="9">
         <v>0.170543</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="10">
+      <c r="B15" s="8">
         <v>6.9011000000000003E-2</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="8">
         <v>5.2447000000000001E-2</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="8">
         <v>3.0700999999999999E-2</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="8">
         <v>1.7787000000000001E-2</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="9">
         <v>5.0765999999999999E-2</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="9">
         <v>8.6490999999999998E-2</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="10">
         <v>0.15774099999999999</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="10">
+      <c r="B16" s="8">
         <v>6.9708999999999993E-2</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="8">
         <v>3.9876000000000002E-2</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="8">
         <v>2.8083E-2</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="8">
         <v>1.8360999999999999E-2</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="10">
         <v>4.9001000000000003E-2</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="10">
         <v>8.6943999999999994E-2</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="9">
         <v>0.16096099999999999</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="10">
+      <c r="B17" s="8">
         <v>7.0427000000000003E-2</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="8">
         <v>4.1879E-2</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="8">
         <v>2.8303999999999999E-2</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="8">
         <v>1.9640000000000001E-2</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="10">
         <v>4.9600999999999999E-2</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="9">
         <v>9.7448999999999994E-2</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="10">
         <v>0.159111</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18">
         <f>MEDIAN(B3:B17)</f>
         <v>6.9011000000000003E-2</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18">
         <f t="shared" ref="C18:H18" si="0">MEDIAN(C3:C17)</f>
         <v>4.2612999999999998E-2</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18">
         <f t="shared" si="0"/>
         <v>2.8303999999999999E-2</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18">
         <f t="shared" si="0"/>
         <v>1.9640000000000001E-2</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18">
         <f t="shared" si="0"/>
         <v>5.0865E-2</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18">
         <f t="shared" si="0"/>
         <v>8.6122000000000004E-2</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18">
         <f t="shared" si="0"/>
         <v>0.15950600000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="E20" s="7"/>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="E21" s="7"/>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7755,7 +7419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D673EB-527A-4311-97C0-4F61A49EBEFC}">
   <dimension ref="A1:AO132"/>
   <sheetViews>
-    <sheetView topLeftCell="J7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AN43" sqref="AN43"/>
     </sheetView>
   </sheetViews>
